--- a/SQL/ees_archicteture_short.xlsx
+++ b/SQL/ees_archicteture_short.xlsx
@@ -2109,7 +2109,7 @@
   <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
